--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed2/result_data_RandomForest.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.754499999999999</v>
+        <v>6.344399999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.999399999999997</v>
+        <v>-7.014299999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.29489999999999</v>
+        <v>16.2777</v>
       </c>
     </row>
     <row r="20">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.471400000000006</v>
+        <v>9.293800000000005</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.09540000000001</v>
+        <v>9.024200000000008</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,10 +845,10 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.238300000000006</v>
+        <v>-7.379500000000008</v>
       </c>
       <c r="E24" t="n">
-        <v>17.10970000000001</v>
+        <v>16.63540000000001</v>
       </c>
     </row>
     <row r="25">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.116599999999997</v>
+        <v>6.456700000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.1518</v>
+        <v>-12.4369</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.4729</v>
+        <v>15.5276</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.0801</v>
+        <v>-13.26799999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.3009</v>
+        <v>16.23310000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.12080000000001</v>
+        <v>17.02190000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.81460000000001</v>
+        <v>-12.62070000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.7203</v>
+        <v>-11.8043</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.6123</v>
+        <v>-11.7462</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1725</v>
+        <v>-11.0246</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.798499999999999</v>
+        <v>5.420799999999998</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.739</v>
+        <v>-13.7926</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.31970000000001</v>
+        <v>16.51070000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.97099999999999</v>
+        <v>-12.77979999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.826099999999998</v>
+        <v>4.781899999999996</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.14849999999999</v>
+        <v>-13.7887</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.884299999999994</v>
+        <v>-8.9229</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.731399999999997</v>
+        <v>4.692799999999997</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.673300000000001</v>
+        <v>-7.748999999999998</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.14150000000001</v>
+        <v>17.07750000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.148099999999996</v>
+        <v>5.399899999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.916200000000006</v>
+        <v>-8.048799999999998</v>
       </c>
       <c r="E70" t="n">
-        <v>16.62130000000001</v>
+        <v>16.5526</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.30210000000001</v>
+        <v>-12.45300000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.5002</v>
+        <v>16.51100000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.169300000000005</v>
+        <v>9.5036</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.431599999999999</v>
+        <v>5.038599999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.69420000000001</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="84">
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.572899999999994</v>
+        <v>-7.599499999999995</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.72810000000001</v>
+        <v>-11.03240000000001</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.9368</v>
+        <v>-12.4138</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.615900000000002</v>
+        <v>5.5039</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.83449999999999</v>
+        <v>15.7693</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.89400000000001</v>
+        <v>16.8749</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.829999999999997</v>
+        <v>-9.03779999999999</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.4374</v>
+        <v>-8.470599999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.650799999999996</v>
+        <v>-7.484299999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
